--- a/docs/metadata/excel_spreadsheets/BMAG067/METADATA_sample_information_DSNE_BMAG067_2017-2019.xlsx
+++ b/docs/metadata/excel_spreadsheets/BMAG067/METADATA_sample_information_DSNE_BMAG067_2017-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miocene/Desktop/git_repos/DS_Ne/docs/metadata/excel_spreadsheets/BMAG067/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88FAE30-9A67-7542-B572-35778F5725E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588DA589-25C0-7649-B778-053AA5121035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15600" yWindow="-24040" windowWidth="31660" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15600" yWindow="-24040" windowWidth="31660" windowHeight="18300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Info" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6570" uniqueCount="1602">
   <si>
     <t>Plate 1</t>
   </si>
@@ -2568,294 +2568,6 @@
     <t>index_number</t>
   </si>
   <si>
-    <t>Ht44_01_2019_A01</t>
-  </si>
-  <si>
-    <t>Ht44_02_2018_B01</t>
-  </si>
-  <si>
-    <t>Ht44_03_2019_C01</t>
-  </si>
-  <si>
-    <t>Ht44_04_2019_D01</t>
-  </si>
-  <si>
-    <t>Ht44_05_2019_E01</t>
-  </si>
-  <si>
-    <t>Ht44_06_2019_F01</t>
-  </si>
-  <si>
-    <t>Ht44_07_2018_G01</t>
-  </si>
-  <si>
-    <t>Ht44_08_2019_H01</t>
-  </si>
-  <si>
-    <t>Ht44_09_2018_A02</t>
-  </si>
-  <si>
-    <t>Ht44_10_2018_B02</t>
-  </si>
-  <si>
-    <t>Ht44_11_2018_C02</t>
-  </si>
-  <si>
-    <t>Ht44_12_2019_D02</t>
-  </si>
-  <si>
-    <t>Ht44_13_2018_E02</t>
-  </si>
-  <si>
-    <t>Ht44_14_2018_F02</t>
-  </si>
-  <si>
-    <t>Ht44_15_2018_G02</t>
-  </si>
-  <si>
-    <t>Ht44_16_2018_H02</t>
-  </si>
-  <si>
-    <t>Ht44_17_2019_A03</t>
-  </si>
-  <si>
-    <t>Ht44_18_2019_B03</t>
-  </si>
-  <si>
-    <t>Ht44_19_2019_C03</t>
-  </si>
-  <si>
-    <t>Ht44_20_2019_D03</t>
-  </si>
-  <si>
-    <t>Ht44_21_2019_E03</t>
-  </si>
-  <si>
-    <t>Ht44_22_2018_F03</t>
-  </si>
-  <si>
-    <t>Ht44_23_2019_G03</t>
-  </si>
-  <si>
-    <t>Ht44_24_2019_H03</t>
-  </si>
-  <si>
-    <t>Ht44_25_2018_A04</t>
-  </si>
-  <si>
-    <t>Ht44_26_2019_B04</t>
-  </si>
-  <si>
-    <t>Ht44_27_2018_C04</t>
-  </si>
-  <si>
-    <t>Ht44_28_2019_D04</t>
-  </si>
-  <si>
-    <t>Ht44_29_2018_E04</t>
-  </si>
-  <si>
-    <t>Ht44_30_2019_F04</t>
-  </si>
-  <si>
-    <t>Ht44_31_2018_G04</t>
-  </si>
-  <si>
-    <t>Ht44_32_2019_H04</t>
-  </si>
-  <si>
-    <t>Ht44_33_2018_A05</t>
-  </si>
-  <si>
-    <t>Ht44_34_2019_B05</t>
-  </si>
-  <si>
-    <t>Ht44_35_2018_C05</t>
-  </si>
-  <si>
-    <t>Ht44_36_2019_D05</t>
-  </si>
-  <si>
-    <t>Ht44_37_2018_E05</t>
-  </si>
-  <si>
-    <t>Ht44_38_2019_F05</t>
-  </si>
-  <si>
-    <t>Ht44_39_2018_G05</t>
-  </si>
-  <si>
-    <t>Ht44_40_2019_H05</t>
-  </si>
-  <si>
-    <t>Ht44_41_2019_A06</t>
-  </si>
-  <si>
-    <t>Ht44_42_2019_B06</t>
-  </si>
-  <si>
-    <t>Ht44_43_2019_C06</t>
-  </si>
-  <si>
-    <t>Ht44_44_2019_D06</t>
-  </si>
-  <si>
-    <t>Ht44_45_2019_E06</t>
-  </si>
-  <si>
-    <t>Ht44_46_2019_F06</t>
-  </si>
-  <si>
-    <t>Ht44_47_2019_G06</t>
-  </si>
-  <si>
-    <t>Ht44_48_2020_H06</t>
-  </si>
-  <si>
-    <t>Ht44_49_2018_A07</t>
-  </si>
-  <si>
-    <t>Ht44_50_2020_B07</t>
-  </si>
-  <si>
-    <t>Ht44_51_2018_C07</t>
-  </si>
-  <si>
-    <t>Ht44_52_2020_D07</t>
-  </si>
-  <si>
-    <t>Ht44_53_2018_E07</t>
-  </si>
-  <si>
-    <t>Ht44_54_2020_F07</t>
-  </si>
-  <si>
-    <t>Ht44_55_2018_G07</t>
-  </si>
-  <si>
-    <t>Ht44_56_2020_H07</t>
-  </si>
-  <si>
-    <t>Ht44_57_2019_A08</t>
-  </si>
-  <si>
-    <t>Ht44_58_2020_B08</t>
-  </si>
-  <si>
-    <t>Ht44_59_2019_C08</t>
-  </si>
-  <si>
-    <t>Ht44_60_2020_D08</t>
-  </si>
-  <si>
-    <t>Ht44_61_2019_E08</t>
-  </si>
-  <si>
-    <t>Ht44_62_2020_F08</t>
-  </si>
-  <si>
-    <t>Ht44_63_2019_G08</t>
-  </si>
-  <si>
-    <t>Ht44_64_2020_H08</t>
-  </si>
-  <si>
-    <t>Ht44_65_2018_A09</t>
-  </si>
-  <si>
-    <t>Ht44_66_2020_B09</t>
-  </si>
-  <si>
-    <t>Ht44_67_2018_C09</t>
-  </si>
-  <si>
-    <t>Ht44_68_2020_D09</t>
-  </si>
-  <si>
-    <t>Ht44_69_2018_E09</t>
-  </si>
-  <si>
-    <t>Ht44_70_2020_F09</t>
-  </si>
-  <si>
-    <t>Ht44_71_2018_G09</t>
-  </si>
-  <si>
-    <t>Ht44_72_2020_H09</t>
-  </si>
-  <si>
-    <t>Ht44_73_2019_A10</t>
-  </si>
-  <si>
-    <t>Ht44_74_2020_B10</t>
-  </si>
-  <si>
-    <t>Ht44_75_2019_C10</t>
-  </si>
-  <si>
-    <t>Ht44_76_2020_D10</t>
-  </si>
-  <si>
-    <t>Ht44_77_2019_E10</t>
-  </si>
-  <si>
-    <t>Ht44_78_2020_F10</t>
-  </si>
-  <si>
-    <t>Ht44_79_2020_G10</t>
-  </si>
-  <si>
-    <t>Ht44_80_2020_H10</t>
-  </si>
-  <si>
-    <t>Ht44_81_2018_A11</t>
-  </si>
-  <si>
-    <t>Ht44_82_2020_B11</t>
-  </si>
-  <si>
-    <t>Ht44_83_2018_C11</t>
-  </si>
-  <si>
-    <t>Ht44_84_2020_D11</t>
-  </si>
-  <si>
-    <t>Ht44_85_2018_E11</t>
-  </si>
-  <si>
-    <t>Ht44_86_2020_F11</t>
-  </si>
-  <si>
-    <t>Ht44_87_2018_G11</t>
-  </si>
-  <si>
-    <t>Ht44_88_2020_H11</t>
-  </si>
-  <si>
-    <t>Ht44_89_2018_A12</t>
-  </si>
-  <si>
-    <t>Ht44_90_2020_B12</t>
-  </si>
-  <si>
-    <t>Ht44_91_2018_C12</t>
-  </si>
-  <si>
-    <t>Ht44_92_2020_D12</t>
-  </si>
-  <si>
-    <t>Ht44_93_2018_E12</t>
-  </si>
-  <si>
-    <t>Ht44_94_2020_F12</t>
-  </si>
-  <si>
-    <t>Ht44_95_2018_G12</t>
-  </si>
-  <si>
-    <t>Ht44_96_2020_H12</t>
-  </si>
-  <si>
     <t>Ht41-01_2018_A01</t>
   </si>
   <si>
@@ -3718,13 +3430,1444 @@
   </si>
   <si>
     <t>Ht43-96_2018_H12</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-01_2018_A01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-02_2018_B01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-03_2018_C01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-04_2018_D01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-05_2019_E01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-06_2018_F01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-07_2018_G01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-08_2018_H01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-09_2019_A02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-10_2019_B02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-11_2019_C02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-12_2019_D02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-13_2019_E02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-14_2019_F02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-15_2019_G02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-16_2019_H02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-17_2018_A03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-18_2018_B03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-19_2018_C03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-20_2018_D03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-21_2018_E03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-22_2018_F03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-23_2018_G03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-24_2018_H03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-25_2019_A04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-26_2019_B04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-27_2019_C04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-28_2019_D04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-29_2019_E04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-30_2019_F04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-31_2019_G04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-32_2019_H04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-33_2018_A05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-34_2018_B05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-35_2018_C05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-36_2018_D05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-37_2018_E05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-38_2018_F05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-39_2018_G05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-40_2018_H05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-41_2018_A06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-42_2018_B06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-43_2018_C06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-44_2018_D06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-45_2018_E06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-46_2018_F06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-47_2018_G06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-48_2018_H06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-49_2019_A07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-50_2019_B07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-51_2019_C07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-52_2019_D07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-53_2019_E07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-54_2019_F07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-55_2019_G07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-56_2019_H07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-57_2018_A08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-58_2018_B08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-59_2018_C08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-60_2018_D08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-61_2018_E08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-62_2018_F08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-63_2018_G08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-64_2018_H08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-65_2018_A09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-66_2018_B09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-67_2019_C09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-68_2018_D09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-69_2018_E09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-70_2018_F09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-71_2018_G09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-72_2018_H09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-73_2018_A10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-74_2018_B10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-75_2018_C10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-76_2018_D10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-77_2018_E10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-78_2018_F10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-79_2018_G10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-80_2018_H10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-81_2019_A11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-82_2019_B11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-83_2019_C11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-84_2019_D11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-85_2019_E11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-86_2019_F11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-87_2019_G11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-88_2019_H11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-89_2018_A12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-90_2018_B12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-91_2018_C12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-92_2018_D12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-93_2019_E12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-94_2019_F12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/ATCACG/Ht41-95_2019_G12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-01_2018_A01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-02_2018_B01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-03_2018_C01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-04_2018_D01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-05_2018_E01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-06_2018_F01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-07_2018_G01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-08_2018_H01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-09_2018_A02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-10_2018_B02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-11_2018_C02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-12_2018_D02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-13_2018_E02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-14_2018_F02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-15_2018_G02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-16_2018_H02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-17_2019_A03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-18_2019_B03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-19_2019_C03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-20_2019_D03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-21_2019_E03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-22_2019_F03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-23_2019_G03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-24_2019_H03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-25_2019_A04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-26_2019_B04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-27_2019_C04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-28_2019_D04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-29_2019_E04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-30_2019_F04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-31_2019_G04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-32_2019_H04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-33_2018_A05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-34_2018_B05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-35_2018_C05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-36_2018_D05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-37_2018_E05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-38_2018_F05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-39_2018_G05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-40_2018_H05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-41_2019_A06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-42_2019_B06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-43_2019_C06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-44_2019_D06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-45_2019_E06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-46_2019_F06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-47_2019_G06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-48_2019_H06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-49_2018_A07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-50_2018_B07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-51_2018_C07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-52_2018_D07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-53_2018_E07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-54_2018_F07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-55_2018_G07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-56_2018_H07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-57_2019_A08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-58_2019_B08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-59_2019_C08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-60_2019_D08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-61_2019_E08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-62_2019_F08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-63_2019_G08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-64_2019_H08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-65_2018_A09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-66_2018_B09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-67_2018_C09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-68_2018_D09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-69_2018_E09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-70_2018_F09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-71_2018_G09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-72_2018_H09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-73_2018_A10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-74_2018_B10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-75_2018_C10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-76_2018_D10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-77_2018_E10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-78_2018_F10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-79_2018_G10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-80_2018_H10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-81_2020_A11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-82_2020_B11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-83_2020_C11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-84_2020_D11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-85_2020_E11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-86_2020_F11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-87_2020_G11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-88_2020_H11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-89_2020_A12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-90_2020_B12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-91_2020_C12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-92_2020_D12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-93_2020_E12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-94_2020_F12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/CGATGT/Ht42-95_2020_G12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_01_2019_A01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_02_2018_B01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_03_2019_C01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_04_2019_D01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_05_2019_E01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_06_2019_F01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_07_2018_G01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_08_2019_H01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_09_2018_A02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_10_2018_B02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_11_2018_C02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_12_2019_D02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_13_2018_E02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_14_2018_F02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_15_2018_G02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_16_2018_H02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_17_2019_A03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_18_2019_B03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_19_2019_C03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_20_2019_D03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_21_2019_E03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_22_2018_F03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_23_2019_G03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_24_2019_H03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_25_2018_A04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_26_2019_B04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_27_2018_C04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_28_2019_D04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_29_2018_E04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_30_2019_F04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_31_2018_G04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_32_2019_H04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_33_2018_A05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_34_2019_B05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_35_2018_C05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_36_2019_D05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_37_2018_E05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_38_2019_F05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_39_2018_G05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_40_2019_H05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_41_2019_A06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_42_2019_B06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_43_2019_C06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_44_2019_D06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_45_2019_E06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_46_2019_F06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_47_2019_G06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_48_2020_H06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_49_2018_A07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_50_2020_B07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_51_2018_C07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_52_2020_D07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_53_2018_E07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_54_2020_F07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_55_2018_G07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_56_2020_H07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_57_2019_A08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_58_2020_B08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_59_2019_C08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_60_2020_D08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_61_2019_E08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_62_2020_F08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_63_2019_G08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_64_2020_H08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_65_2018_A09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_66_2020_B09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_67_2018_C09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_68_2020_D09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_69_2018_E09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_70_2020_F09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_71_2018_G09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_72_2020_H09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_73_2019_A10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_74_2020_B10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_75_2019_C10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_76_2020_D10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_77_2019_E10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_78_2020_F10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_79_2020_G10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_80_2020_H10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_81_2018_A11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_82_2020_B11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_83_2018_C11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_84_2020_D11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_85_2018_E11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_86_2020_F11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_87_2018_G11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_88_2020_H11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_89_2018_A12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_90_2020_B12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_91_2018_C12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_92_2020_D12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_93_2018_E12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_94_2020_F12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TGACCA/Ht44_95_2018_G12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-01_2019_A01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-02_2019_B01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-03_2019_C01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-04_2019_D01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-05_2019_E01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-06_2019_F01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-07_2019_G01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-08_2019_H01_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-09_2019_A02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-10_2018_B02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-11_2019_C02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-12_2018_D02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-13_2019_E02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-14_2018_F02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-15_2018_G02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-16_2018_H02_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-17_2019_A03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-18_2019_B03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-19_2019_C03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-20_2019_D03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-21_2019_E03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-22_2019_F03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-23_2019_G03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-24_2019_H03_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-25_2019_A04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-26_2018_B04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-27_2019_C04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-28_2018_D04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-29_2019_E04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-30_2018_F04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-31_2019_G04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-32_2018_H04_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-33_2019_A05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-34_2018_B05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-35_2019_C05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-36_2018_D05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-37_2019_E05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-38_2018_F05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-39_2019_G05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-40_2018_H05_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-41_2019_A06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-42_2019_B06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-43_2019_C06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-44_2019_D06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-45_2019_E06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-46_2019_F06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-47_2019_G06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-48_2019_H06_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-49_2020_A07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-50_2018_B07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-51_2020_C07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-52_2018_D07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-53_2020_E07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-54_2018_F07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-55_2020_G07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-56_2018_H07_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-57_2020_A08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-58_2019_B08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-59_2020_C08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-60_2019_D08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-61_2020_E08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-62_2019_F08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-63_2020_G08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-64_2019_H08_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-65_2020_A09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-66_2018_B09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-67_2020_C09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-68_2018_D09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-69_2020_E09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-70_2018_F09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-71_2020_G09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-72_2018_H09_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-73_2020_A10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-74_2019_B10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-75_2020_C10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-76_2019_D10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-77_2020_E10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-78_2019_F10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-79_2020_G10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-80_2018_H10_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-81_2020_A11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-82_2018_B11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-83_2020_C11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-84_2018_D11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-85_2020_E11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-86_2018_F11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-87_2020_G11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-88_2018_H11_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-89_2020_A12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-90_2018_B12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-91_2020_C12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-92_2018_D12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-93_2020_E12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-94_2018_F12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-95_2020_G12_R1.fastq</t>
+  </si>
+  <si>
+    <t>BMAG067/TTAGGC/Ht43-96_2018_H12_R1.fastq</t>
+  </si>
+  <si>
+    <t>Ht44-01_2019_A01</t>
+  </si>
+  <si>
+    <t>Ht44-02_2018_B01</t>
+  </si>
+  <si>
+    <t>Ht44-03_2019_C01</t>
+  </si>
+  <si>
+    <t>Ht44-04_2019_D01</t>
+  </si>
+  <si>
+    <t>Ht44-05_2019_E01</t>
+  </si>
+  <si>
+    <t>Ht44-06_2019_F01</t>
+  </si>
+  <si>
+    <t>Ht44-07_2018_G01</t>
+  </si>
+  <si>
+    <t>Ht44-08_2019_H01</t>
+  </si>
+  <si>
+    <t>Ht44-09_2018_A02</t>
+  </si>
+  <si>
+    <t>Ht44-10_2018_B02</t>
+  </si>
+  <si>
+    <t>Ht44-11_2018_C02</t>
+  </si>
+  <si>
+    <t>Ht44-12_2019_D02</t>
+  </si>
+  <si>
+    <t>Ht44-13_2018_E02</t>
+  </si>
+  <si>
+    <t>Ht44-14_2018_F02</t>
+  </si>
+  <si>
+    <t>Ht44-15_2018_G02</t>
+  </si>
+  <si>
+    <t>Ht44-16_2018_H02</t>
+  </si>
+  <si>
+    <t>Ht44-17_2019_A03</t>
+  </si>
+  <si>
+    <t>Ht44-18_2019_B03</t>
+  </si>
+  <si>
+    <t>Ht44-19_2019_C03</t>
+  </si>
+  <si>
+    <t>Ht44-20_2019_D03</t>
+  </si>
+  <si>
+    <t>Ht44-21_2019_E03</t>
+  </si>
+  <si>
+    <t>Ht44-22_2018_F03</t>
+  </si>
+  <si>
+    <t>Ht44-23_2019_G03</t>
+  </si>
+  <si>
+    <t>Ht44-24_2019_H03</t>
+  </si>
+  <si>
+    <t>Ht44-25_2018_A04</t>
+  </si>
+  <si>
+    <t>Ht44-26_2019_B04</t>
+  </si>
+  <si>
+    <t>Ht44-27_2018_C04</t>
+  </si>
+  <si>
+    <t>Ht44-28_2019_D04</t>
+  </si>
+  <si>
+    <t>Ht44-29_2018_E04</t>
+  </si>
+  <si>
+    <t>Ht44-30_2019_F04</t>
+  </si>
+  <si>
+    <t>Ht44-31_2018_G04</t>
+  </si>
+  <si>
+    <t>Ht44-32_2019_H04</t>
+  </si>
+  <si>
+    <t>Ht44-33_2018_A05</t>
+  </si>
+  <si>
+    <t>Ht44-34_2019_B05</t>
+  </si>
+  <si>
+    <t>Ht44-35_2018_C05</t>
+  </si>
+  <si>
+    <t>Ht44-36_2019_D05</t>
+  </si>
+  <si>
+    <t>Ht44-37_2018_E05</t>
+  </si>
+  <si>
+    <t>Ht44-38_2019_F05</t>
+  </si>
+  <si>
+    <t>Ht44-39_2018_G05</t>
+  </si>
+  <si>
+    <t>Ht44-40_2019_H05</t>
+  </si>
+  <si>
+    <t>Ht44-41_2019_A06</t>
+  </si>
+  <si>
+    <t>Ht44-42_2019_B06</t>
+  </si>
+  <si>
+    <t>Ht44-43_2019_C06</t>
+  </si>
+  <si>
+    <t>Ht44-44_2019_D06</t>
+  </si>
+  <si>
+    <t>Ht44-45_2019_E06</t>
+  </si>
+  <si>
+    <t>Ht44-46_2019_F06</t>
+  </si>
+  <si>
+    <t>Ht44-47_2019_G06</t>
+  </si>
+  <si>
+    <t>Ht44-48_2020_H06</t>
+  </si>
+  <si>
+    <t>Ht44-49_2018_A07</t>
+  </si>
+  <si>
+    <t>Ht44-50_2020_B07</t>
+  </si>
+  <si>
+    <t>Ht44-51_2018_C07</t>
+  </si>
+  <si>
+    <t>Ht44-52_2020_D07</t>
+  </si>
+  <si>
+    <t>Ht44-53_2018_E07</t>
+  </si>
+  <si>
+    <t>Ht44-54_2020_F07</t>
+  </si>
+  <si>
+    <t>Ht44-55_2018_G07</t>
+  </si>
+  <si>
+    <t>Ht44-56_2020_H07</t>
+  </si>
+  <si>
+    <t>Ht44-57_2019_A08</t>
+  </si>
+  <si>
+    <t>Ht44-58_2020_B08</t>
+  </si>
+  <si>
+    <t>Ht44-59_2019_C08</t>
+  </si>
+  <si>
+    <t>Ht44-60_2020_D08</t>
+  </si>
+  <si>
+    <t>Ht44-61_2019_E08</t>
+  </si>
+  <si>
+    <t>Ht44-62_2020_F08</t>
+  </si>
+  <si>
+    <t>Ht44-63_2019_G08</t>
+  </si>
+  <si>
+    <t>Ht44-64_2020_H08</t>
+  </si>
+  <si>
+    <t>Ht44-65_2018_A09</t>
+  </si>
+  <si>
+    <t>Ht44-66_2020_B09</t>
+  </si>
+  <si>
+    <t>Ht44-67_2018_C09</t>
+  </si>
+  <si>
+    <t>Ht44-68_2020_D09</t>
+  </si>
+  <si>
+    <t>Ht44-69_2018_E09</t>
+  </si>
+  <si>
+    <t>Ht44-70_2020_F09</t>
+  </si>
+  <si>
+    <t>Ht44-71_2018_G09</t>
+  </si>
+  <si>
+    <t>Ht44-72_2020_H09</t>
+  </si>
+  <si>
+    <t>Ht44-73_2019_A10</t>
+  </si>
+  <si>
+    <t>Ht44-74_2020_B10</t>
+  </si>
+  <si>
+    <t>Ht44-75_2019_C10</t>
+  </si>
+  <si>
+    <t>Ht44-76_2020_D10</t>
+  </si>
+  <si>
+    <t>Ht44-77_2019_E10</t>
+  </si>
+  <si>
+    <t>Ht44-78_2020_F10</t>
+  </si>
+  <si>
+    <t>Ht44-79_2020_G10</t>
+  </si>
+  <si>
+    <t>Ht44-80_2020_H10</t>
+  </si>
+  <si>
+    <t>Ht44-81_2018_A11</t>
+  </si>
+  <si>
+    <t>Ht44-82_2020_B11</t>
+  </si>
+  <si>
+    <t>Ht44-83_2018_C11</t>
+  </si>
+  <si>
+    <t>Ht44-84_2020_D11</t>
+  </si>
+  <si>
+    <t>Ht44-85_2018_E11</t>
+  </si>
+  <si>
+    <t>Ht44-86_2020_F11</t>
+  </si>
+  <si>
+    <t>Ht44-87_2018_G11</t>
+  </si>
+  <si>
+    <t>Ht44-88_2020_H11</t>
+  </si>
+  <si>
+    <t>Ht44-89_2018_A12</t>
+  </si>
+  <si>
+    <t>Ht44-90_2020_B12</t>
+  </si>
+  <si>
+    <t>Ht44-91_2018_C12</t>
+  </si>
+  <si>
+    <t>Ht44-92_2020_D12</t>
+  </si>
+  <si>
+    <t>Ht44-93_2018_E12</t>
+  </si>
+  <si>
+    <t>Ht44-94_2020_F12</t>
+  </si>
+  <si>
+    <t>Ht44-95_2018_G12</t>
+  </si>
+  <si>
+    <t>Ht44-96_2020_H12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3756,6 +4899,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3871,7 +5021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3917,6 +5067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4210,9 +5361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I290" sqref="I290:I385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4327,6 +5478,9 @@
       <c r="M2">
         <v>2018</v>
       </c>
+      <c r="O2" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4369,6 +5523,9 @@
       <c r="M3" s="11">
         <v>2018</v>
       </c>
+      <c r="O3" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4411,6 +5568,9 @@
       <c r="M4" s="11">
         <v>2018</v>
       </c>
+      <c r="O4" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4453,6 +5613,9 @@
       <c r="M5" s="11">
         <v>2018</v>
       </c>
+      <c r="O5" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4495,6 +5658,9 @@
       <c r="M6" s="11">
         <v>2019</v>
       </c>
+      <c r="O6" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4537,6 +5703,9 @@
       <c r="M7" s="11">
         <v>2018</v>
       </c>
+      <c r="O7" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4579,6 +5748,9 @@
       <c r="M8" s="11">
         <v>2018</v>
       </c>
+      <c r="O8" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4621,6 +5793,9 @@
       <c r="M9" s="11">
         <v>2018</v>
       </c>
+      <c r="O9" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4663,6 +5838,9 @@
       <c r="M10" s="11">
         <v>2019</v>
       </c>
+      <c r="O10" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4705,6 +5883,9 @@
       <c r="M11" s="11">
         <v>2019</v>
       </c>
+      <c r="O11" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4747,6 +5928,9 @@
       <c r="M12" s="11">
         <v>2019</v>
       </c>
+      <c r="O12" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4789,6 +5973,9 @@
       <c r="M13" s="11">
         <v>2019</v>
       </c>
+      <c r="O13" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4831,6 +6018,9 @@
       <c r="M14" s="11">
         <v>2019</v>
       </c>
+      <c r="O14" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4873,6 +6063,9 @@
       <c r="M15" s="11">
         <v>2019</v>
       </c>
+      <c r="O15" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4915,6 +6108,9 @@
       <c r="M16" s="11">
         <v>2019</v>
       </c>
+      <c r="O16" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4957,6 +6153,9 @@
       <c r="M17" s="11">
         <v>2019</v>
       </c>
+      <c r="O17" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4999,6 +6198,9 @@
       <c r="M18" s="11">
         <v>2018</v>
       </c>
+      <c r="O18" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5041,6 +6243,9 @@
       <c r="M19" s="11">
         <v>2018</v>
       </c>
+      <c r="O19" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5083,6 +6288,9 @@
       <c r="M20" s="11">
         <v>2018</v>
       </c>
+      <c r="O20" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -5125,6 +6333,9 @@
       <c r="M21" s="11">
         <v>2018</v>
       </c>
+      <c r="O21" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -5167,6 +6378,9 @@
       <c r="M22" s="11">
         <v>2018</v>
       </c>
+      <c r="O22" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -5209,6 +6423,9 @@
       <c r="M23" s="11">
         <v>2018</v>
       </c>
+      <c r="O23" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5251,6 +6468,9 @@
       <c r="M24" s="11">
         <v>2018</v>
       </c>
+      <c r="O24" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -5293,6 +6513,9 @@
       <c r="M25" s="11">
         <v>2018</v>
       </c>
+      <c r="O25" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -5335,6 +6558,9 @@
       <c r="M26" s="11">
         <v>2019</v>
       </c>
+      <c r="O26" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5377,6 +6603,9 @@
       <c r="M27" s="11">
         <v>2019</v>
       </c>
+      <c r="O27" t="s">
+        <v>1150</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -5420,6 +6649,9 @@
         <v>2019</v>
       </c>
       <c r="N28" s="8"/>
+      <c r="O28" t="s">
+        <v>1151</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -5469,6 +6701,9 @@
         <v>2019</v>
       </c>
       <c r="N29" s="8"/>
+      <c r="O29" t="s">
+        <v>1152</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -5518,6 +6753,9 @@
         <v>2019</v>
       </c>
       <c r="N30" s="8"/>
+      <c r="O30" t="s">
+        <v>1153</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -5567,7 +6805,9 @@
         <v>2019</v>
       </c>
       <c r="N31" s="8"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>1154</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -5618,7 +6858,9 @@
         <v>2019</v>
       </c>
       <c r="N32" s="8"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>1155</v>
+      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -5669,7 +6911,9 @@
         <v>2019</v>
       </c>
       <c r="N33" s="8"/>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -5720,7 +6964,9 @@
         <v>2018</v>
       </c>
       <c r="N34" s="8"/>
-      <c r="O34" s="3"/>
+      <c r="O34" s="3" t="s">
+        <v>1157</v>
+      </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -5771,7 +7017,9 @@
         <v>2018</v>
       </c>
       <c r="N35" s="8"/>
-      <c r="O35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>1158</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -5822,7 +7070,9 @@
         <v>2018</v>
       </c>
       <c r="N36" s="8"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>1159</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -5873,7 +7123,9 @@
         <v>2018</v>
       </c>
       <c r="N37" s="8"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>1160</v>
+      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -5924,7 +7176,9 @@
         <v>2018</v>
       </c>
       <c r="N38" s="8"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>1161</v>
+      </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -5975,7 +7229,9 @@
         <v>2018</v>
       </c>
       <c r="N39" s="8"/>
-      <c r="O39" s="5"/>
+      <c r="O39" s="5" t="s">
+        <v>1162</v>
+      </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -6026,7 +7282,9 @@
         <v>2018</v>
       </c>
       <c r="N40" s="8"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>1163</v>
+      </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -6077,7 +7335,9 @@
         <v>2018</v>
       </c>
       <c r="N41" s="8"/>
-      <c r="O41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>1164</v>
+      </c>
       <c r="R41" s="5"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -6127,7 +7387,9 @@
       <c r="M42" s="11">
         <v>2018</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>1165</v>
+      </c>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
@@ -6171,7 +7433,9 @@
       <c r="M43" s="11">
         <v>2018</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -6214,7 +7478,9 @@
       <c r="M44" s="11">
         <v>2018</v>
       </c>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -6257,7 +7523,9 @@
       <c r="M45" s="11">
         <v>2018</v>
       </c>
-      <c r="O45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -6300,7 +7568,9 @@
       <c r="M46" s="11">
         <v>2018</v>
       </c>
-      <c r="O46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -6343,7 +7613,9 @@
       <c r="M47" s="11">
         <v>2018</v>
       </c>
-      <c r="O47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>1170</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -6386,7 +7658,9 @@
       <c r="M48" s="11">
         <v>2018</v>
       </c>
-      <c r="O48" s="5"/>
+      <c r="O48" s="5" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -6429,7 +7703,9 @@
       <c r="M49" s="11">
         <v>2018</v>
       </c>
-      <c r="O49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -6472,7 +7748,9 @@
       <c r="M50" s="11">
         <v>2019</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -6515,7 +7793,9 @@
       <c r="M51" s="11">
         <v>2019</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="O51" s="5" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -6558,7 +7838,9 @@
       <c r="M52" s="11">
         <v>2019</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -6601,7 +7883,9 @@
       <c r="M53" s="11">
         <v>2019</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -6644,7 +7928,9 @@
       <c r="M54" s="11">
         <v>2019</v>
       </c>
-      <c r="O54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -6687,7 +7973,9 @@
       <c r="M55" s="11">
         <v>2019</v>
       </c>
-      <c r="O55" s="5"/>
+      <c r="O55" s="5" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -6730,7 +8018,9 @@
       <c r="M56" s="11">
         <v>2019</v>
       </c>
-      <c r="O56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -6773,7 +8063,9 @@
       <c r="M57" s="11">
         <v>2019</v>
       </c>
-      <c r="O57" s="5"/>
+      <c r="O57" s="5" t="s">
+        <v>1180</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -6816,7 +8108,9 @@
       <c r="M58" s="11">
         <v>2018</v>
       </c>
-      <c r="O58" s="5"/>
+      <c r="O58" s="5" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -6859,7 +8153,9 @@
       <c r="M59" s="11">
         <v>2018</v>
       </c>
-      <c r="O59" s="5"/>
+      <c r="O59" s="5" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -6902,7 +8198,9 @@
       <c r="M60" s="11">
         <v>2018</v>
       </c>
-      <c r="O60" s="5"/>
+      <c r="O60" s="5" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -6945,7 +8243,9 @@
       <c r="M61" s="11">
         <v>2018</v>
       </c>
-      <c r="O61" s="5"/>
+      <c r="O61" s="5" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -6988,7 +8288,9 @@
       <c r="M62" s="11">
         <v>2018</v>
       </c>
-      <c r="O62" s="5"/>
+      <c r="O62" s="5" t="s">
+        <v>1185</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -7031,7 +8333,9 @@
       <c r="M63" s="11">
         <v>2018</v>
       </c>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>1186</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -7074,8 +8378,11 @@
       <c r="M64" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>299</v>
       </c>
@@ -7116,8 +8423,11 @@
       <c r="M65" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>219</v>
       </c>
@@ -7158,8 +8468,11 @@
       <c r="M66" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>231</v>
       </c>
@@ -7200,8 +8513,11 @@
       <c r="M67" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -7242,8 +8558,11 @@
       <c r="M68" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>253</v>
       </c>
@@ -7284,8 +8603,11 @@
       <c r="M69" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>264</v>
       </c>
@@ -7326,8 +8648,11 @@
       <c r="M70" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>276</v>
       </c>
@@ -7368,8 +8693,11 @@
       <c r="M71" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -7410,8 +8738,11 @@
       <c r="M72" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -7452,8 +8783,11 @@
       <c r="M73" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -7494,8 +8828,11 @@
       <c r="M74" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>232</v>
       </c>
@@ -7536,8 +8873,11 @@
       <c r="M75" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>243</v>
       </c>
@@ -7578,8 +8918,11 @@
       <c r="M76" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -7620,8 +8963,11 @@
       <c r="M77" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -7662,8 +9008,11 @@
       <c r="M78" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -7704,8 +9053,11 @@
       <c r="M79" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>289</v>
       </c>
@@ -7746,8 +9098,11 @@
       <c r="M80" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>301</v>
       </c>
@@ -7788,8 +9143,11 @@
       <c r="M81" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -7830,8 +9188,11 @@
       <c r="M82" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>233</v>
       </c>
@@ -7872,8 +9233,11 @@
       <c r="M83" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -7914,8 +9278,11 @@
       <c r="M84" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -7956,8 +9323,11 @@
       <c r="M85" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>266</v>
       </c>
@@ -7998,8 +9368,11 @@
       <c r="M86" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -8040,8 +9413,11 @@
       <c r="M87" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -8082,8 +9458,11 @@
       <c r="M88" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>302</v>
       </c>
@@ -8124,8 +9503,11 @@
       <c r="M89" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -8166,8 +9548,11 @@
       <c r="M90" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>7617</v>
       </c>
@@ -8208,8 +9593,11 @@
       <c r="M91" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7616</v>
       </c>
@@ -8250,8 +9638,11 @@
       <c r="M92" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7618</v>
       </c>
@@ -8292,8 +9683,11 @@
       <c r="M93" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -8334,8 +9728,11 @@
       <c r="M94" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -8376,8 +9773,11 @@
       <c r="M95" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -8418,6 +9818,9 @@
       <c r="M96" s="11">
         <v>2019</v>
       </c>
+      <c r="O96" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="97" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -8461,8 +9864,8 @@
         <v>2019</v>
       </c>
       <c r="N97" s="8"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
@@ -8507,7 +9910,10 @@
       <c r="M98" s="11">
         <v>2018</v>
       </c>
-      <c r="O98" s="5"/>
+      <c r="O98" s="23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P98" s="23"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -8550,7 +9956,9 @@
       <c r="M99" s="11">
         <v>2018</v>
       </c>
-      <c r="O99" s="5"/>
+      <c r="O99" s="5" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -8593,7 +10001,9 @@
       <c r="M100" s="11">
         <v>2018</v>
       </c>
-      <c r="O100" s="5"/>
+      <c r="O100" s="5" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -8636,7 +10046,9 @@
       <c r="M101" s="11">
         <v>2018</v>
       </c>
-      <c r="O101" s="5"/>
+      <c r="O101" s="5" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -8679,7 +10091,9 @@
       <c r="M102" s="11">
         <v>2018</v>
       </c>
-      <c r="O102" s="5"/>
+      <c r="O102" s="5" t="s">
+        <v>1224</v>
+      </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -8722,7 +10136,9 @@
       <c r="M103" s="11">
         <v>2018</v>
       </c>
-      <c r="O103" s="5"/>
+      <c r="O103" s="5" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -8765,7 +10181,9 @@
       <c r="M104" s="11">
         <v>2018</v>
       </c>
-      <c r="O104" s="5"/>
+      <c r="O104" s="5" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -8808,7 +10226,9 @@
       <c r="M105" s="11">
         <v>2018</v>
       </c>
-      <c r="O105" s="5"/>
+      <c r="O105" s="5" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -8851,7 +10271,9 @@
       <c r="M106" s="11">
         <v>2018</v>
       </c>
-      <c r="O106" s="5"/>
+      <c r="O106" s="5" t="s">
+        <v>1228</v>
+      </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -8894,7 +10316,9 @@
       <c r="M107" s="11">
         <v>2018</v>
       </c>
-      <c r="O107" s="5"/>
+      <c r="O107" s="5" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -8937,7 +10361,9 @@
       <c r="M108" s="11">
         <v>2018</v>
       </c>
-      <c r="O108" s="5"/>
+      <c r="O108" s="5" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -8980,7 +10406,9 @@
       <c r="M109" s="11">
         <v>2018</v>
       </c>
-      <c r="O109" s="5"/>
+      <c r="O109" s="5" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -9023,7 +10451,9 @@
       <c r="M110" s="11">
         <v>2018</v>
       </c>
-      <c r="O110" s="5"/>
+      <c r="O110" s="5" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -9066,7 +10496,9 @@
       <c r="M111" s="11">
         <v>2018</v>
       </c>
-      <c r="O111" s="5"/>
+      <c r="O111" s="5" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -9109,7 +10541,9 @@
       <c r="M112" s="11">
         <v>2018</v>
       </c>
-      <c r="O112" s="5"/>
+      <c r="O112" s="5" t="s">
+        <v>1234</v>
+      </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -9152,7 +10586,9 @@
       <c r="M113" s="11">
         <v>2018</v>
       </c>
-      <c r="O113" s="5"/>
+      <c r="O113" s="5" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -9195,7 +10631,9 @@
       <c r="M114" s="11">
         <v>2019</v>
       </c>
-      <c r="O114" s="5"/>
+      <c r="O114" s="5" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -9238,7 +10676,9 @@
       <c r="M115" s="11">
         <v>2019</v>
       </c>
-      <c r="O115" s="5"/>
+      <c r="O115" s="5" t="s">
+        <v>1237</v>
+      </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -9281,7 +10721,9 @@
       <c r="M116" s="11">
         <v>2019</v>
       </c>
-      <c r="O116" s="5"/>
+      <c r="O116" s="5" t="s">
+        <v>1238</v>
+      </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -9324,7 +10766,9 @@
       <c r="M117" s="11">
         <v>2019</v>
       </c>
-      <c r="O117" s="5"/>
+      <c r="O117" s="5" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -9367,7 +10811,9 @@
       <c r="M118" s="11">
         <v>2019</v>
       </c>
-      <c r="O118" s="5"/>
+      <c r="O118" s="5" t="s">
+        <v>1240</v>
+      </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -9410,7 +10856,9 @@
       <c r="M119" s="11">
         <v>2019</v>
       </c>
-      <c r="O119" s="5"/>
+      <c r="O119" s="5" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -9453,7 +10901,9 @@
       <c r="M120" s="11">
         <v>2019</v>
       </c>
-      <c r="O120" s="5"/>
+      <c r="O120" s="5" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -9496,7 +10946,9 @@
       <c r="M121" s="11">
         <v>2019</v>
       </c>
-      <c r="O121" s="5"/>
+      <c r="O121" s="5" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -9539,7 +10991,9 @@
       <c r="M122" s="11">
         <v>2019</v>
       </c>
-      <c r="O122" s="5"/>
+      <c r="O122" s="5" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -9582,7 +11036,9 @@
       <c r="M123" s="11">
         <v>2019</v>
       </c>
-      <c r="O123" s="5"/>
+      <c r="O123" s="5" t="s">
+        <v>1245</v>
+      </c>
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
     </row>
@@ -9627,7 +11083,9 @@
       <c r="M124" s="11">
         <v>2019</v>
       </c>
-      <c r="O124" s="5"/>
+      <c r="O124" s="5" t="s">
+        <v>1246</v>
+      </c>
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
@@ -9672,7 +11130,9 @@
       <c r="M125" s="11">
         <v>2019</v>
       </c>
-      <c r="O125" s="5"/>
+      <c r="O125" s="5" t="s">
+        <v>1247</v>
+      </c>
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
@@ -9717,7 +11177,9 @@
       <c r="M126" s="11">
         <v>2019</v>
       </c>
-      <c r="O126" s="5"/>
+      <c r="O126" s="5" t="s">
+        <v>1248</v>
+      </c>
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
@@ -9762,7 +11224,9 @@
       <c r="M127" s="11">
         <v>2019</v>
       </c>
-      <c r="O127" s="5"/>
+      <c r="O127" s="5" t="s">
+        <v>1249</v>
+      </c>
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
@@ -9807,7 +11271,9 @@
       <c r="M128" s="11">
         <v>2019</v>
       </c>
-      <c r="O128" s="5"/>
+      <c r="O128" s="5" t="s">
+        <v>1250</v>
+      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -9850,7 +11316,9 @@
       <c r="M129" s="11">
         <v>2019</v>
       </c>
-      <c r="O129" s="5"/>
+      <c r="O129" s="5" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -9893,7 +11361,9 @@
       <c r="M130" s="11">
         <v>2018</v>
       </c>
-      <c r="O130" s="5"/>
+      <c r="O130" s="5" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -9936,7 +11406,9 @@
       <c r="M131" s="11">
         <v>2018</v>
       </c>
-      <c r="O131" s="5"/>
+      <c r="O131" s="5" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -9979,7 +11451,9 @@
       <c r="M132" s="11">
         <v>2018</v>
       </c>
-      <c r="O132" s="5"/>
+      <c r="O132" s="5" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -10022,7 +11496,9 @@
       <c r="M133" s="11">
         <v>2018</v>
       </c>
-      <c r="O133" s="5"/>
+      <c r="O133" s="5" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -10065,7 +11541,9 @@
       <c r="M134" s="11">
         <v>2018</v>
       </c>
-      <c r="O134" s="5"/>
+      <c r="O134" s="5" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -10108,7 +11586,9 @@
       <c r="M135" s="11">
         <v>2018</v>
       </c>
-      <c r="O135" s="5"/>
+      <c r="O135" s="5" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -10151,7 +11631,9 @@
       <c r="M136" s="11">
         <v>2018</v>
       </c>
-      <c r="O136" s="5"/>
+      <c r="O136" s="5" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -10194,7 +11676,9 @@
       <c r="M137" s="11">
         <v>2018</v>
       </c>
-      <c r="O137" s="5"/>
+      <c r="O137" s="5" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -10237,7 +11721,9 @@
       <c r="M138" s="11">
         <v>2019</v>
       </c>
-      <c r="O138" s="5"/>
+      <c r="O138" s="5" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -10280,7 +11766,9 @@
       <c r="M139" s="11">
         <v>2019</v>
       </c>
-      <c r="O139" s="5"/>
+      <c r="O139" s="5" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -10323,7 +11811,9 @@
       <c r="M140" s="11">
         <v>2019</v>
       </c>
-      <c r="O140" s="5"/>
+      <c r="O140" s="5" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -10366,7 +11856,9 @@
       <c r="M141" s="11">
         <v>2019</v>
       </c>
-      <c r="O141" s="5"/>
+      <c r="O141" s="5" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -10409,7 +11901,9 @@
       <c r="M142" s="11">
         <v>2019</v>
       </c>
-      <c r="O142" s="5"/>
+      <c r="O142" s="5" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -10452,7 +11946,9 @@
       <c r="M143" s="11">
         <v>2019</v>
       </c>
-      <c r="O143" s="5"/>
+      <c r="O143" s="5" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -10495,7 +11991,9 @@
       <c r="M144" s="11">
         <v>2019</v>
       </c>
-      <c r="O144" s="5"/>
+      <c r="O144" s="5" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -10538,7 +12036,9 @@
       <c r="M145" s="11">
         <v>2019</v>
       </c>
-      <c r="O145" s="5"/>
+      <c r="O145" s="5" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -10581,7 +12081,9 @@
       <c r="M146" s="11">
         <v>2018</v>
       </c>
-      <c r="O146" s="5"/>
+      <c r="O146" s="5" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -10624,7 +12126,9 @@
       <c r="M147" s="11">
         <v>2018</v>
       </c>
-      <c r="O147" s="5"/>
+      <c r="O147" s="5" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -10667,7 +12171,9 @@
       <c r="M148" s="11">
         <v>2018</v>
       </c>
-      <c r="O148" s="5"/>
+      <c r="O148" s="5" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -10710,7 +12216,9 @@
       <c r="M149" s="11">
         <v>2018</v>
       </c>
-      <c r="O149" s="5"/>
+      <c r="O149" s="5" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -10753,7 +12261,9 @@
       <c r="M150" s="11">
         <v>2018</v>
       </c>
-      <c r="O150" s="5"/>
+      <c r="O150" s="5" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -10796,7 +12306,9 @@
       <c r="M151" s="11">
         <v>2018</v>
       </c>
-      <c r="O151" s="5"/>
+      <c r="O151" s="5" t="s">
+        <v>1273</v>
+      </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -10839,7 +12351,9 @@
       <c r="M152" s="11">
         <v>2018</v>
       </c>
-      <c r="O152" s="5"/>
+      <c r="O152" s="5" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -10882,7 +12396,9 @@
       <c r="M153" s="11">
         <v>2018</v>
       </c>
-      <c r="O153" s="5"/>
+      <c r="O153" s="5" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -10925,7 +12441,9 @@
       <c r="M154" s="11">
         <v>2019</v>
       </c>
-      <c r="O154" s="5"/>
+      <c r="O154" s="5" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -10968,7 +12486,9 @@
       <c r="M155" s="11">
         <v>2019</v>
       </c>
-      <c r="O155" s="5"/>
+      <c r="O155" s="5" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -11011,7 +12531,9 @@
       <c r="M156" s="11">
         <v>2019</v>
       </c>
-      <c r="O156" s="5"/>
+      <c r="O156" s="5" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -11054,7 +12576,9 @@
       <c r="M157" s="11">
         <v>2019</v>
       </c>
-      <c r="O157" s="5"/>
+      <c r="O157" s="5" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -11097,7 +12621,9 @@
       <c r="M158" s="11">
         <v>2019</v>
       </c>
-      <c r="O158" s="5"/>
+      <c r="O158" s="5" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -11140,7 +12666,9 @@
       <c r="M159" s="11">
         <v>2019</v>
       </c>
-      <c r="O159" s="5"/>
+      <c r="O159" s="5" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -11183,7 +12711,9 @@
       <c r="M160" s="11">
         <v>2019</v>
       </c>
-      <c r="O160" s="5"/>
+      <c r="O160" s="5" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -11226,7 +12756,9 @@
       <c r="M161" s="11">
         <v>2019</v>
       </c>
-      <c r="O161" s="5"/>
+      <c r="O161" s="5" t="s">
+        <v>1283</v>
+      </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -11270,7 +12802,9 @@
         <v>2018</v>
       </c>
       <c r="N162" s="8"/>
-      <c r="O162" s="5"/>
+      <c r="O162" s="5" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -11313,7 +12847,9 @@
       <c r="M163" s="11">
         <v>2018</v>
       </c>
-      <c r="O163" s="5"/>
+      <c r="O163" s="5" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -11356,7 +12892,9 @@
       <c r="M164" s="11">
         <v>2018</v>
       </c>
-      <c r="O164" s="5"/>
+      <c r="O164" s="5" t="s">
+        <v>1286</v>
+      </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -11399,6 +12937,9 @@
       <c r="M165" s="11">
         <v>2018</v>
       </c>
+      <c r="O165" s="5" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -11441,6 +12982,9 @@
       <c r="M166" s="11">
         <v>2018</v>
       </c>
+      <c r="O166" t="s">
+        <v>1288</v>
+      </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -11483,6 +13027,9 @@
       <c r="M167" s="11">
         <v>2018</v>
       </c>
+      <c r="O167" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -11525,6 +13072,9 @@
       <c r="M168" s="11">
         <v>2018</v>
       </c>
+      <c r="O168" t="s">
+        <v>1290</v>
+      </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -11567,6 +13117,9 @@
       <c r="M169" s="11">
         <v>2018</v>
       </c>
+      <c r="O169" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -11609,6 +13162,9 @@
       <c r="M170" s="11">
         <v>2018</v>
       </c>
+      <c r="O170" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -11651,6 +13207,9 @@
       <c r="M171" s="11">
         <v>2018</v>
       </c>
+      <c r="O171" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -11693,6 +13252,9 @@
       <c r="M172" s="11">
         <v>2018</v>
       </c>
+      <c r="O172" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -11735,6 +13297,9 @@
       <c r="M173" s="11">
         <v>2018</v>
       </c>
+      <c r="O173" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -11777,6 +13342,9 @@
       <c r="M174" s="11">
         <v>2018</v>
       </c>
+      <c r="O174" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -11819,6 +13387,9 @@
       <c r="M175" s="11">
         <v>2018</v>
       </c>
+      <c r="O175" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -11861,8 +13432,11 @@
       <c r="M176" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O176" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>398</v>
       </c>
@@ -11903,8 +13477,11 @@
       <c r="M177" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O177" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>315</v>
       </c>
@@ -11945,8 +13522,11 @@
       <c r="M178" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O178" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>327</v>
       </c>
@@ -11987,8 +13567,11 @@
       <c r="M179" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O179" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>339</v>
       </c>
@@ -12029,8 +13612,11 @@
       <c r="M180" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O180" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>351</v>
       </c>
@@ -12071,8 +13657,11 @@
       <c r="M181" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O181" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -12113,8 +13702,11 @@
       <c r="M182" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O182" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>375</v>
       </c>
@@ -12155,8 +13747,11 @@
       <c r="M183" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O183" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>387</v>
       </c>
@@ -12197,8 +13792,11 @@
       <c r="M184" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O184" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -12239,8 +13837,11 @@
       <c r="M185" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O185" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -12281,8 +13882,11 @@
       <c r="M186" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O186" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -12323,8 +13927,11 @@
       <c r="M187" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O187" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>340</v>
       </c>
@@ -12365,8 +13972,11 @@
       <c r="M188" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O188" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>352</v>
       </c>
@@ -12407,8 +14017,11 @@
       <c r="M189" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O189" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>364</v>
       </c>
@@ -12449,8 +14062,11 @@
       <c r="M190" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O190" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -12491,8 +14107,11 @@
       <c r="M191" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O191" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -12533,6 +14152,9 @@
       <c r="M192" s="11">
         <v>2020</v>
       </c>
+      <c r="O192" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="193" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
@@ -12576,8 +14198,8 @@
         <v>2020</v>
       </c>
       <c r="N193" s="8"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
     </row>
@@ -12622,7 +14244,9 @@
       <c r="M194" s="11">
         <v>2019</v>
       </c>
-      <c r="O194" s="5"/>
+      <c r="O194" t="s">
+        <v>1315</v>
+      </c>
       <c r="R194" s="5"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
@@ -12666,7 +14290,10 @@
       <c r="M195" s="11">
         <v>2019</v>
       </c>
-      <c r="O195" s="5"/>
+      <c r="O195" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P195" s="3"/>
       <c r="R195" s="5"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
@@ -12710,7 +14337,9 @@
       <c r="M196" s="11">
         <v>2019</v>
       </c>
-      <c r="O196" s="5"/>
+      <c r="O196" s="5" t="s">
+        <v>1317</v>
+      </c>
       <c r="R196" s="5"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -12754,7 +14383,9 @@
       <c r="M197" s="11">
         <v>2019</v>
       </c>
-      <c r="O197" s="5"/>
+      <c r="O197" s="5" t="s">
+        <v>1318</v>
+      </c>
       <c r="R197" s="5"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
@@ -12798,7 +14429,9 @@
       <c r="M198" s="11">
         <v>2019</v>
       </c>
-      <c r="O198" s="5"/>
+      <c r="O198" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="R198" s="5"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
@@ -12842,7 +14475,9 @@
       <c r="M199" s="11">
         <v>2019</v>
       </c>
-      <c r="O199" s="5"/>
+      <c r="O199" s="5" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -12885,7 +14520,9 @@
       <c r="M200" s="11">
         <v>2019</v>
       </c>
-      <c r="O200" s="5"/>
+      <c r="O200" s="5" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -12928,7 +14565,9 @@
       <c r="M201" s="11">
         <v>2019</v>
       </c>
-      <c r="O201" s="5"/>
+      <c r="O201" s="5" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -12971,7 +14610,9 @@
       <c r="M202" s="11">
         <v>2019</v>
       </c>
-      <c r="O202" s="5"/>
+      <c r="O202" s="5" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -13014,7 +14655,9 @@
       <c r="M203" s="11">
         <v>2018</v>
       </c>
-      <c r="O203" s="5"/>
+      <c r="O203" s="5" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -13057,7 +14700,9 @@
       <c r="M204" s="11">
         <v>2019</v>
       </c>
-      <c r="O204" s="5"/>
+      <c r="O204" s="5" t="s">
+        <v>1325</v>
+      </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -13100,7 +14745,9 @@
       <c r="M205" s="11">
         <v>2018</v>
       </c>
-      <c r="O205" s="5"/>
+      <c r="O205" s="5" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -13143,7 +14790,9 @@
       <c r="M206" s="11">
         <v>2019</v>
       </c>
-      <c r="O206" s="5"/>
+      <c r="O206" s="5" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -13186,7 +14835,9 @@
       <c r="M207" s="11">
         <v>2018</v>
       </c>
-      <c r="O207" s="5"/>
+      <c r="O207" s="5" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -13229,7 +14880,9 @@
       <c r="M208" s="11">
         <v>2018</v>
       </c>
-      <c r="O208" s="5"/>
+      <c r="O208" s="5" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -13272,7 +14925,9 @@
       <c r="M209" s="11">
         <v>2018</v>
       </c>
-      <c r="O209" s="5"/>
+      <c r="O209" s="5" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -13315,7 +14970,9 @@
       <c r="M210" s="11">
         <v>2019</v>
       </c>
-      <c r="O210" s="5"/>
+      <c r="O210" s="5" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -13358,7 +15015,9 @@
       <c r="M211" s="11">
         <v>2019</v>
       </c>
-      <c r="O211" s="5"/>
+      <c r="O211" s="5" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -13401,7 +15060,9 @@
       <c r="M212" s="11">
         <v>2019</v>
       </c>
-      <c r="O212" s="5"/>
+      <c r="O212" s="5" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -13444,7 +15105,9 @@
       <c r="M213" s="11">
         <v>2019</v>
       </c>
-      <c r="O213" s="5"/>
+      <c r="O213" s="5" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -13487,7 +15150,9 @@
       <c r="M214" s="11">
         <v>2019</v>
       </c>
-      <c r="O214" s="5"/>
+      <c r="O214" s="5" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -13530,7 +15195,9 @@
       <c r="M215" s="11">
         <v>2019</v>
       </c>
-      <c r="O215" s="5"/>
+      <c r="O215" s="5" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -13573,7 +15240,9 @@
       <c r="M216" s="11">
         <v>2019</v>
       </c>
-      <c r="O216" s="5"/>
+      <c r="O216" s="5" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -13616,7 +15285,9 @@
       <c r="M217" s="11">
         <v>2019</v>
       </c>
-      <c r="O217" s="5"/>
+      <c r="O217" s="5" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -13659,7 +15330,9 @@
       <c r="M218" s="11">
         <v>2019</v>
       </c>
-      <c r="O218" s="5"/>
+      <c r="O218" s="5" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -13702,7 +15375,9 @@
       <c r="M219" s="11">
         <v>2018</v>
       </c>
-      <c r="O219" s="5"/>
+      <c r="O219" s="5" t="s">
+        <v>1340</v>
+      </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -13745,7 +15420,9 @@
       <c r="M220" s="11">
         <v>2019</v>
       </c>
-      <c r="O220" s="5"/>
+      <c r="O220" s="5" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -13788,7 +15465,9 @@
       <c r="M221" s="11">
         <v>2018</v>
       </c>
-      <c r="O221" s="5"/>
+      <c r="O221" s="5" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -13831,7 +15510,9 @@
       <c r="M222" s="11">
         <v>2019</v>
       </c>
-      <c r="O222" s="5"/>
+      <c r="O222" s="5" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -13874,7 +15555,9 @@
       <c r="M223" s="11">
         <v>2018</v>
       </c>
-      <c r="O223" s="5"/>
+      <c r="O223" s="5" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -13917,7 +15600,9 @@
       <c r="M224" s="11">
         <v>2019</v>
       </c>
-      <c r="O224" s="5"/>
+      <c r="O224" s="5" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -13960,7 +15645,9 @@
       <c r="M225" s="11">
         <v>2018</v>
       </c>
-      <c r="O225" s="5"/>
+      <c r="O225" s="5" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -14003,7 +15690,9 @@
       <c r="M226" s="11">
         <v>2019</v>
       </c>
-      <c r="O226" s="5"/>
+      <c r="O226" s="5" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -14046,7 +15735,9 @@
       <c r="M227" s="11">
         <v>2018</v>
       </c>
-      <c r="O227" s="5"/>
+      <c r="O227" s="5" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -14089,7 +15780,9 @@
       <c r="M228" s="11">
         <v>2019</v>
       </c>
-      <c r="O228" s="5"/>
+      <c r="O228" s="5" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -14132,7 +15825,9 @@
       <c r="M229" s="11">
         <v>2018</v>
       </c>
-      <c r="O229" s="5"/>
+      <c r="O229" s="5" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -14175,7 +15870,9 @@
       <c r="M230" s="11">
         <v>2019</v>
       </c>
-      <c r="O230" s="5"/>
+      <c r="O230" s="5" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -14218,7 +15915,9 @@
       <c r="M231" s="11">
         <v>2018</v>
       </c>
-      <c r="O231" s="5"/>
+      <c r="O231" s="5" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -14261,7 +15960,9 @@
       <c r="M232" s="11">
         <v>2019</v>
       </c>
-      <c r="O232" s="5"/>
+      <c r="O232" s="5" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -14304,7 +16005,9 @@
       <c r="M233" s="11">
         <v>2018</v>
       </c>
-      <c r="O233" s="5"/>
+      <c r="O233" s="5" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -14347,7 +16050,9 @@
       <c r="M234" s="11">
         <v>2019</v>
       </c>
-      <c r="O234" s="5"/>
+      <c r="O234" s="5" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -14390,7 +16095,9 @@
       <c r="M235" s="11">
         <v>2019</v>
       </c>
-      <c r="O235" s="5"/>
+      <c r="O235" s="5" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -14433,7 +16140,9 @@
       <c r="M236" s="11">
         <v>2019</v>
       </c>
-      <c r="O236" s="5"/>
+      <c r="O236" s="5" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -14476,7 +16185,9 @@
       <c r="M237" s="11">
         <v>2019</v>
       </c>
-      <c r="O237" s="5"/>
+      <c r="O237" s="5" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -14519,7 +16230,9 @@
       <c r="M238" s="11">
         <v>2019</v>
       </c>
-      <c r="O238" s="5"/>
+      <c r="O238" s="5" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -14562,7 +16275,9 @@
       <c r="M239" s="11">
         <v>2019</v>
       </c>
-      <c r="O239" s="5"/>
+      <c r="O239" s="5" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -14605,7 +16320,9 @@
       <c r="M240" s="11">
         <v>2019</v>
       </c>
-      <c r="O240" s="5"/>
+      <c r="O240" s="5" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -14648,7 +16365,9 @@
       <c r="M241" s="11">
         <v>2019</v>
       </c>
-      <c r="O241" s="5"/>
+      <c r="O241" s="5" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -14691,7 +16410,9 @@
       <c r="M242" s="11">
         <v>2020</v>
       </c>
-      <c r="O242" s="5"/>
+      <c r="O242" s="5" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -14734,7 +16455,9 @@
       <c r="M243" s="11">
         <v>2018</v>
       </c>
-      <c r="O243" s="5"/>
+      <c r="O243" s="5" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -14777,7 +16500,9 @@
       <c r="M244" s="11">
         <v>2020</v>
       </c>
-      <c r="O244" s="5"/>
+      <c r="O244" s="5" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -14820,7 +16545,9 @@
       <c r="M245" s="11">
         <v>2018</v>
       </c>
-      <c r="O245" s="5"/>
+      <c r="O245" s="5" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -14863,7 +16590,9 @@
       <c r="M246" s="11">
         <v>2020</v>
       </c>
-      <c r="O246" s="5"/>
+      <c r="O246" s="5" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -14906,7 +16635,9 @@
       <c r="M247" s="11">
         <v>2018</v>
       </c>
-      <c r="O247" s="5"/>
+      <c r="O247" s="5" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -14949,7 +16680,9 @@
       <c r="M248" s="11">
         <v>2020</v>
       </c>
-      <c r="O248" s="5"/>
+      <c r="O248" s="5" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -14992,7 +16725,9 @@
       <c r="M249" s="11">
         <v>2018</v>
       </c>
-      <c r="O249" s="5"/>
+      <c r="O249" s="5" t="s">
+        <v>1370</v>
+      </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -15035,7 +16770,9 @@
       <c r="M250" s="11">
         <v>2020</v>
       </c>
-      <c r="O250" s="5"/>
+      <c r="O250" s="5" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -15078,7 +16815,9 @@
       <c r="M251" s="11">
         <v>2019</v>
       </c>
-      <c r="O251" s="5"/>
+      <c r="O251" s="5" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -15121,7 +16860,9 @@
       <c r="M252" s="11">
         <v>2020</v>
       </c>
-      <c r="O252" s="5"/>
+      <c r="O252" s="5" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -15164,7 +16905,9 @@
       <c r="M253" s="11">
         <v>2019</v>
       </c>
-      <c r="O253" s="5"/>
+      <c r="O253" s="5" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -15207,7 +16950,9 @@
       <c r="M254" s="11">
         <v>2020</v>
       </c>
-      <c r="O254" s="5"/>
+      <c r="O254" s="5" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -15250,7 +16995,9 @@
       <c r="M255" s="11">
         <v>2019</v>
       </c>
-      <c r="O255" s="5"/>
+      <c r="O255" s="5" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -15293,7 +17040,9 @@
       <c r="M256" s="11">
         <v>2020</v>
       </c>
-      <c r="O256" s="5"/>
+      <c r="O256" s="5" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -15336,7 +17085,9 @@
       <c r="M257" s="11">
         <v>2019</v>
       </c>
-      <c r="O257" s="5"/>
+      <c r="O257" s="5" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -15379,7 +17130,9 @@
       <c r="M258" s="11">
         <v>2020</v>
       </c>
-      <c r="O258" s="5"/>
+      <c r="O258" s="5" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -15422,7 +17175,9 @@
       <c r="M259" s="11">
         <v>2018</v>
       </c>
-      <c r="O259" s="5"/>
+      <c r="O259" s="5" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -15465,7 +17220,9 @@
       <c r="M260" s="11">
         <v>2020</v>
       </c>
-      <c r="O260" s="5"/>
+      <c r="O260" s="5" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -15508,7 +17265,9 @@
       <c r="M261" s="11">
         <v>2018</v>
       </c>
-      <c r="O261" s="5"/>
+      <c r="O261" s="5" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -15551,7 +17310,9 @@
       <c r="M262" s="11">
         <v>2020</v>
       </c>
-      <c r="O262" s="5"/>
+      <c r="O262" s="5" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -15594,7 +17355,9 @@
       <c r="M263" s="11">
         <v>2018</v>
       </c>
-      <c r="O263" s="5"/>
+      <c r="O263" s="5" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -15637,7 +17400,9 @@
       <c r="M264" s="11">
         <v>2020</v>
       </c>
-      <c r="O264" s="5"/>
+      <c r="O264" s="5" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -15680,7 +17445,9 @@
       <c r="M265" s="11">
         <v>2018</v>
       </c>
-      <c r="O265" s="5"/>
+      <c r="O265" s="5" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -15723,7 +17490,9 @@
       <c r="M266" s="11">
         <v>2020</v>
       </c>
-      <c r="O266" s="5"/>
+      <c r="O266" s="5" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -15766,7 +17535,9 @@
       <c r="M267" s="11">
         <v>2019</v>
       </c>
-      <c r="O267" s="5"/>
+      <c r="O267" s="5" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -15809,7 +17580,9 @@
       <c r="M268" s="11">
         <v>2020</v>
       </c>
-      <c r="O268" s="5"/>
+      <c r="O268" s="5" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -15852,7 +17625,9 @@
       <c r="M269" s="11">
         <v>2019</v>
       </c>
-      <c r="O269" s="5"/>
+      <c r="O269" s="5" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -15895,7 +17670,9 @@
       <c r="M270" s="11">
         <v>2020</v>
       </c>
-      <c r="O270" s="5"/>
+      <c r="O270" s="5" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -15938,7 +17715,9 @@
       <c r="M271" s="11">
         <v>2019</v>
       </c>
-      <c r="O271" s="5"/>
+      <c r="O271" s="5" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -15981,7 +17760,9 @@
       <c r="M272" s="11">
         <v>2020</v>
       </c>
-      <c r="O272" s="5"/>
+      <c r="O272" s="5" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -16024,7 +17805,9 @@
       <c r="M273" s="11">
         <v>2018</v>
       </c>
-      <c r="O273" s="5"/>
+      <c r="O273" s="5" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -16067,7 +17850,9 @@
       <c r="M274" s="11">
         <v>2020</v>
       </c>
-      <c r="O274" s="5"/>
+      <c r="O274" s="5" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -16110,7 +17895,9 @@
       <c r="M275" s="11">
         <v>2018</v>
       </c>
-      <c r="O275" s="5"/>
+      <c r="O275" s="5" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -16153,7 +17940,9 @@
       <c r="M276" s="11">
         <v>2020</v>
       </c>
-      <c r="O276" s="5"/>
+      <c r="O276" s="5" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -16196,7 +17985,9 @@
       <c r="M277" s="11">
         <v>2018</v>
       </c>
-      <c r="O277" s="5"/>
+      <c r="O277" s="5" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -16239,7 +18030,9 @@
       <c r="M278" s="11">
         <v>2020</v>
       </c>
-      <c r="O278" s="5"/>
+      <c r="O278" s="5" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -16282,7 +18075,9 @@
       <c r="M279" s="11">
         <v>2018</v>
       </c>
-      <c r="O279" s="5"/>
+      <c r="O279" s="5" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -16325,7 +18120,9 @@
       <c r="M280" s="11">
         <v>2020</v>
       </c>
-      <c r="O280" s="5"/>
+      <c r="O280" s="5" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -16368,7 +18165,9 @@
       <c r="M281" s="11">
         <v>2018</v>
       </c>
-      <c r="O281" s="5"/>
+      <c r="O281" s="5" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -16411,7 +18210,9 @@
       <c r="M282" s="11">
         <v>2020</v>
       </c>
-      <c r="O282" s="5"/>
+      <c r="O282" s="5" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -16454,7 +18255,9 @@
       <c r="M283" s="11">
         <v>2018</v>
       </c>
-      <c r="O283" s="5"/>
+      <c r="O283" s="5" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -16497,7 +18300,9 @@
       <c r="M284" s="11">
         <v>2020</v>
       </c>
-      <c r="O284" s="5"/>
+      <c r="O284" s="5" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -16540,7 +18345,9 @@
       <c r="M285" s="11">
         <v>2018</v>
       </c>
-      <c r="O285" s="5"/>
+      <c r="O285" s="5" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -16583,7 +18390,9 @@
       <c r="M286" s="11">
         <v>2020</v>
       </c>
-      <c r="O286" s="5"/>
+      <c r="O286" s="5" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -16626,7 +18435,9 @@
       <c r="M287" s="11">
         <v>2018</v>
       </c>
-      <c r="O287" s="5"/>
+      <c r="O287" s="5" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -16669,7 +18480,9 @@
       <c r="M288" s="11">
         <v>2020</v>
       </c>
-      <c r="O288" s="6"/>
+      <c r="O288" s="5" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="289" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
@@ -16713,8 +18526,8 @@
         <v>2018</v>
       </c>
       <c r="N289" s="8"/>
-      <c r="O289" s="14"/>
-      <c r="P289" s="3"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="11"/>
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
@@ -16761,8 +18574,9 @@
         <v>2019</v>
       </c>
       <c r="N290" s="8"/>
-      <c r="O290" s="5"/>
-      <c r="P290" s="3"/>
+      <c r="O290" s="5" t="s">
+        <v>1410</v>
+      </c>
       <c r="Q290" s="3"/>
       <c r="R290" s="3"/>
       <c r="S290" s="3"/>
@@ -16808,7 +18622,9 @@
       <c r="M291" s="11">
         <v>2018</v>
       </c>
-      <c r="O291" s="5"/>
+      <c r="O291" s="6" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -16851,7 +18667,10 @@
       <c r="M292" s="11">
         <v>2019</v>
       </c>
-      <c r="O292" s="5"/>
+      <c r="O292" s="14" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P292" s="3"/>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -16894,7 +18713,10 @@
       <c r="M293" s="11">
         <v>2019</v>
       </c>
-      <c r="O293" s="5"/>
+      <c r="O293" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P293" s="3"/>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -16937,6 +18759,9 @@
       <c r="M294" s="11">
         <v>2019</v>
       </c>
+      <c r="O294" s="5" t="s">
+        <v>1414</v>
+      </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -16979,6 +18804,9 @@
       <c r="M295" s="11">
         <v>2019</v>
       </c>
+      <c r="O295" s="5" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -17021,6 +18849,9 @@
       <c r="M296" s="11">
         <v>2018</v>
       </c>
+      <c r="O296" s="5" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -17063,6 +18894,9 @@
       <c r="M297" s="11">
         <v>2019</v>
       </c>
+      <c r="O297" t="s">
+        <v>1417</v>
+      </c>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -17105,6 +18939,9 @@
       <c r="M298" s="11">
         <v>2018</v>
       </c>
+      <c r="O298" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -17147,6 +18984,9 @@
       <c r="M299" s="11">
         <v>2018</v>
       </c>
+      <c r="O299" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -17189,6 +19029,9 @@
       <c r="M300" s="11">
         <v>2018</v>
       </c>
+      <c r="O300" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -17231,6 +19074,9 @@
       <c r="M301" s="11">
         <v>2019</v>
       </c>
+      <c r="O301" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -17273,6 +19119,9 @@
       <c r="M302" s="11">
         <v>2018</v>
       </c>
+      <c r="O302" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -17315,6 +19164,9 @@
       <c r="M303" s="11">
         <v>2018</v>
       </c>
+      <c r="O303" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -17357,8 +19209,11 @@
       <c r="M304" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O304" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>584</v>
       </c>
@@ -17399,8 +19254,11 @@
       <c r="M305" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O305" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>501</v>
       </c>
@@ -17441,8 +19299,11 @@
       <c r="M306" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O306" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>513</v>
       </c>
@@ -17483,8 +19344,11 @@
       <c r="M307" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O307" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>525</v>
       </c>
@@ -17525,8 +19389,11 @@
       <c r="M308" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O308" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>537</v>
       </c>
@@ -17567,8 +19434,11 @@
       <c r="M309" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O309" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>549</v>
       </c>
@@ -17609,8 +19479,11 @@
       <c r="M310" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O310" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>561</v>
       </c>
@@ -17651,8 +19524,11 @@
       <c r="M311" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O311" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>573</v>
       </c>
@@ -17693,8 +19569,11 @@
       <c r="M312" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O312" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>585</v>
       </c>
@@ -17735,8 +19614,11 @@
       <c r="M313" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O313" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>502</v>
       </c>
@@ -17777,8 +19659,11 @@
       <c r="M314" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O314" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>514</v>
       </c>
@@ -17819,8 +19704,11 @@
       <c r="M315" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O315" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>526</v>
       </c>
@@ -17861,8 +19749,11 @@
       <c r="M316" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O316" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>538</v>
       </c>
@@ -17903,8 +19794,11 @@
       <c r="M317" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O317" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>550</v>
       </c>
@@ -17945,8 +19839,11 @@
       <c r="M318" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O318" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>562</v>
       </c>
@@ -17987,8 +19884,11 @@
       <c r="M319" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O319" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>574</v>
       </c>
@@ -18029,6 +19929,9 @@
       <c r="M320" s="11">
         <v>2018</v>
       </c>
+      <c r="O320" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -18071,6 +19974,9 @@
       <c r="M321" s="11">
         <v>2019</v>
       </c>
+      <c r="O321" t="s">
+        <v>1441</v>
+      </c>
       <c r="S321" s="11"/>
       <c r="T321" s="11"/>
     </row>
@@ -18115,6 +20021,9 @@
       <c r="M322" s="11">
         <v>2018</v>
       </c>
+      <c r="O322" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -18157,6 +20066,9 @@
       <c r="M323" s="11">
         <v>2019</v>
       </c>
+      <c r="O323" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -18199,6 +20111,9 @@
       <c r="M324" s="11">
         <v>2018</v>
       </c>
+      <c r="O324" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -18241,6 +20156,9 @@
       <c r="M325" s="11">
         <v>2019</v>
       </c>
+      <c r="O325" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -18283,6 +20201,9 @@
       <c r="M326" s="11">
         <v>2018</v>
       </c>
+      <c r="O326" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -18325,6 +20246,9 @@
       <c r="M327" s="11">
         <v>2019</v>
       </c>
+      <c r="O327" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -18367,6 +20291,9 @@
       <c r="M328" s="11">
         <v>2018</v>
       </c>
+      <c r="O328" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -18409,6 +20336,9 @@
       <c r="M329" s="11">
         <v>2019</v>
       </c>
+      <c r="O329" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -18451,6 +20381,9 @@
       <c r="M330" s="11">
         <v>2019</v>
       </c>
+      <c r="O330" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -18493,6 +20426,9 @@
       <c r="M331" s="11">
         <v>2019</v>
       </c>
+      <c r="O331" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -18535,6 +20471,9 @@
       <c r="M332" s="11">
         <v>2019</v>
       </c>
+      <c r="O332" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -18577,6 +20516,9 @@
       <c r="M333" s="11">
         <v>2019</v>
       </c>
+      <c r="O333" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -18619,6 +20561,9 @@
       <c r="M334" s="11">
         <v>2019</v>
       </c>
+      <c r="O334" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -18661,6 +20606,9 @@
       <c r="M335" s="11">
         <v>2019</v>
       </c>
+      <c r="O335" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -18703,8 +20651,11 @@
       <c r="M336" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O336" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>588</v>
       </c>
@@ -18745,8 +20696,11 @@
       <c r="M337" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O337" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>505</v>
       </c>
@@ -18787,8 +20741,11 @@
       <c r="M338" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O338" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>517</v>
       </c>
@@ -18829,8 +20786,11 @@
       <c r="M339" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O339" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>529</v>
       </c>
@@ -18871,8 +20831,11 @@
       <c r="M340" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O340" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>541</v>
       </c>
@@ -18913,8 +20876,11 @@
       <c r="M341" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O341" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>553</v>
       </c>
@@ -18955,8 +20921,11 @@
       <c r="M342" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O342" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -18997,8 +20966,11 @@
       <c r="M343" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O343" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>577</v>
       </c>
@@ -19039,8 +21011,11 @@
       <c r="M344" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O344" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>589</v>
       </c>
@@ -19081,8 +21056,11 @@
       <c r="M345" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O345" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>506</v>
       </c>
@@ -19123,8 +21101,11 @@
       <c r="M346" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O346" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>518</v>
       </c>
@@ -19165,8 +21146,11 @@
       <c r="M347" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O347" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>530</v>
       </c>
@@ -19207,8 +21191,11 @@
       <c r="M348" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O348" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>542</v>
       </c>
@@ -19249,8 +21236,11 @@
       <c r="M349" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O349" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>554</v>
       </c>
@@ -19291,8 +21281,11 @@
       <c r="M350" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O350" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>566</v>
       </c>
@@ -19333,8 +21326,11 @@
       <c r="M351" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O351" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>578</v>
       </c>
@@ -19375,8 +21371,11 @@
       <c r="M352" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O352" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>590</v>
       </c>
@@ -19417,8 +21416,11 @@
       <c r="M353" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O353" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>507</v>
       </c>
@@ -19459,8 +21461,11 @@
       <c r="M354" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O354" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>519</v>
       </c>
@@ -19501,8 +21506,11 @@
       <c r="M355" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O355" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>531</v>
       </c>
@@ -19543,8 +21551,11 @@
       <c r="M356" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O356" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>543</v>
       </c>
@@ -19585,8 +21596,11 @@
       <c r="M357" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O357" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>555</v>
       </c>
@@ -19627,8 +21641,11 @@
       <c r="M358" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O358" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>567</v>
       </c>
@@ -19669,8 +21686,11 @@
       <c r="M359" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O359" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>579</v>
       </c>
@@ -19711,8 +21731,11 @@
       <c r="M360" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O360" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>591</v>
       </c>
@@ -19753,8 +21776,11 @@
       <c r="M361" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O361" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>508</v>
       </c>
@@ -19795,8 +21821,11 @@
       <c r="M362" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O362" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>520</v>
       </c>
@@ -19837,8 +21866,11 @@
       <c r="M363" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O363" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>532</v>
       </c>
@@ -19879,8 +21911,11 @@
       <c r="M364" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O364" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>544</v>
       </c>
@@ -19921,8 +21956,11 @@
       <c r="M365" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O365" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>556</v>
       </c>
@@ -19963,8 +22001,11 @@
       <c r="M366" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O366" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>568</v>
       </c>
@@ -20005,8 +22046,11 @@
       <c r="M367" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O367" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>580</v>
       </c>
@@ -20047,8 +22091,11 @@
       <c r="M368" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O368" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>592</v>
       </c>
@@ -20089,8 +22136,11 @@
       <c r="M369" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O369" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>509</v>
       </c>
@@ -20131,8 +22181,11 @@
       <c r="M370" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O370" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>521</v>
       </c>
@@ -20173,8 +22226,11 @@
       <c r="M371" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O371" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>533</v>
       </c>
@@ -20215,8 +22271,11 @@
       <c r="M372" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O372" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>545</v>
       </c>
@@ -20257,8 +22316,11 @@
       <c r="M373" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O373" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>557</v>
       </c>
@@ -20299,8 +22361,11 @@
       <c r="M374" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O374" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>569</v>
       </c>
@@ -20341,8 +22406,11 @@
       <c r="M375" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O375" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>581</v>
       </c>
@@ -20383,8 +22451,11 @@
       <c r="M376" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O376" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>593</v>
       </c>
@@ -20425,8 +22496,11 @@
       <c r="M377" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O377" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>510</v>
       </c>
@@ -20467,8 +22541,11 @@
       <c r="M378" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O378" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>522</v>
       </c>
@@ -20509,8 +22586,11 @@
       <c r="M379" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O379" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>534</v>
       </c>
@@ -20551,8 +22631,11 @@
       <c r="M380" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O380" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>546</v>
       </c>
@@ -20593,8 +22676,11 @@
       <c r="M381" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O381" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>558</v>
       </c>
@@ -20635,8 +22721,11 @@
       <c r="M382" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O382" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>570</v>
       </c>
@@ -20677,8 +22766,11 @@
       <c r="M383" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O383" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>582</v>
       </c>
@@ -20719,8 +22811,11 @@
       <c r="M384" s="11">
         <v>2018</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O384" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>594</v>
       </c>
@@ -20760,6 +22855,9 @@
       </c>
       <c r="M385" s="4">
         <v>2020</v>
+      </c>
+      <c r="O385" t="s">
+        <v>1505</v>
       </c>
     </row>
   </sheetData>
@@ -20798,7 +22896,7 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>933</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -20812,7 +22910,7 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>934</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -20826,7 +22924,7 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>935</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -20840,7 +22938,7 @@
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>936</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -20854,7 +22952,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>937</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -20868,7 +22966,7 @@
         <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>938</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -20882,7 +22980,7 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>939</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -20896,7 +22994,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>940</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -20910,7 +23008,7 @@
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>941</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -20924,7 +23022,7 @@
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>942</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -20938,7 +23036,7 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>943</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -20952,7 +23050,7 @@
         <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -20966,7 +23064,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>945</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -20980,7 +23078,7 @@
         <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>946</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -20994,7 +23092,7 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>947</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -21008,7 +23106,7 @@
         <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>948</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -21022,7 +23120,7 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>949</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -21036,7 +23134,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>950</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -21050,7 +23148,7 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>951</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -21064,7 +23162,7 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>952</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -21078,7 +23176,7 @@
         <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>953</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -21092,7 +23190,7 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>954</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -21106,7 +23204,7 @@
         <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>955</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -21120,7 +23218,7 @@
         <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>956</v>
+        <v>860</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -21134,7 +23232,7 @@
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>957</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -21148,7 +23246,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>958</v>
+        <v>862</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -21162,7 +23260,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>959</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -21176,7 +23274,7 @@
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>960</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -21190,7 +23288,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>961</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -21204,7 +23302,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>962</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -21218,7 +23316,7 @@
         <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>963</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -21232,7 +23330,7 @@
         <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>964</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -21246,7 +23344,7 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>965</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -21260,7 +23358,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>966</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -21274,7 +23372,7 @@
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>967</v>
+        <v>871</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -21288,7 +23386,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>968</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -21302,7 +23400,7 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>969</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -21316,7 +23414,7 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>970</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -21330,7 +23428,7 @@
         <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>971</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -21344,7 +23442,7 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>972</v>
+        <v>876</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -21358,7 +23456,7 @@
         <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>973</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -21372,7 +23470,7 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>974</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -21386,7 +23484,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>975</v>
+        <v>879</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -21400,7 +23498,7 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>976</v>
+        <v>880</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -21414,7 +23512,7 @@
         <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>977</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -21428,7 +23526,7 @@
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>978</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -21442,7 +23540,7 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>979</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -21456,7 +23554,7 @@
         <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>980</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -21470,7 +23568,7 @@
         <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>981</v>
+        <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -21484,7 +23582,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>982</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -21498,7 +23596,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>983</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -21512,7 +23610,7 @@
         <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>984</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -21526,7 +23624,7 @@
         <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>985</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -21540,7 +23638,7 @@
         <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>986</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -21554,7 +23652,7 @@
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>987</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -21568,7 +23666,7 @@
         <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>988</v>
+        <v>892</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -21582,7 +23680,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>989</v>
+        <v>893</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -21596,7 +23694,7 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>990</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -21610,7 +23708,7 @@
         <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>991</v>
+        <v>895</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -21624,7 +23722,7 @@
         <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>992</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -21638,7 +23736,7 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>993</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -21652,7 +23750,7 @@
         <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>994</v>
+        <v>898</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -21666,7 +23764,7 @@
         <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>995</v>
+        <v>899</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -21680,7 +23778,7 @@
         <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>996</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -21694,7 +23792,7 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>997</v>
+        <v>901</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -21708,7 +23806,7 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>998</v>
+        <v>902</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -21722,7 +23820,7 @@
         <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>999</v>
+        <v>903</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -21736,7 +23834,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>1000</v>
+        <v>904</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -21750,7 +23848,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>1001</v>
+        <v>905</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -21764,7 +23862,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>1002</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -21778,7 +23876,7 @@
         <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>1003</v>
+        <v>907</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -21792,7 +23890,7 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>1004</v>
+        <v>908</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -21806,7 +23904,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>1005</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -21820,7 +23918,7 @@
         <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>1006</v>
+        <v>910</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -21834,7 +23932,7 @@
         <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>1007</v>
+        <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -21848,7 +23946,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>1008</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -21862,7 +23960,7 @@
         <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>1009</v>
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -21876,7 +23974,7 @@
         <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>1010</v>
+        <v>914</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -21890,7 +23988,7 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>1011</v>
+        <v>915</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -21904,7 +24002,7 @@
         <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>1012</v>
+        <v>916</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -21918,7 +24016,7 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>1013</v>
+        <v>917</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -21932,7 +24030,7 @@
         <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>1014</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -21946,7 +24044,7 @@
         <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>1015</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -21960,7 +24058,7 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>1016</v>
+        <v>920</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -21974,7 +24072,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>1017</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -21988,7 +24086,7 @@
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>1018</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -22002,7 +24100,7 @@
         <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>1019</v>
+        <v>923</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -22016,7 +24114,7 @@
         <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>1020</v>
+        <v>924</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -22030,7 +24128,7 @@
         <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>1021</v>
+        <v>925</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -22044,7 +24142,7 @@
         <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>1022</v>
+        <v>926</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -22058,7 +24156,7 @@
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>1023</v>
+        <v>927</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -22072,7 +24170,7 @@
         <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -22086,7 +24184,7 @@
         <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>1025</v>
+        <v>929</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -22100,7 +24198,7 @@
         <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>1026</v>
+        <v>930</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -22114,7 +24212,7 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>1027</v>
+        <v>931</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -22128,7 +24226,7 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>1028</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -22161,7 +24259,7 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>1029</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -22175,7 +24273,7 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>1030</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -22189,7 +24287,7 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>1031</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -22203,7 +24301,7 @@
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>1032</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -22217,7 +24315,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>1033</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -22231,7 +24329,7 @@
         <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>1034</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -22245,7 +24343,7 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>1035</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -22259,7 +24357,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>1036</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -22273,7 +24371,7 @@
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>1037</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -22287,7 +24385,7 @@
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>1038</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -22301,7 +24399,7 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>1039</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -22315,7 +24413,7 @@
         <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>1040</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -22329,7 +24427,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>1041</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -22343,7 +24441,7 @@
         <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>1042</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -22357,7 +24455,7 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>1043</v>
+        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -22371,7 +24469,7 @@
         <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>1044</v>
+        <v>948</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -22385,7 +24483,7 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>1045</v>
+        <v>949</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -22399,7 +24497,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>1046</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -22413,7 +24511,7 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>1047</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -22427,7 +24525,7 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>1048</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -22441,7 +24539,7 @@
         <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>1049</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -22455,7 +24553,7 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>1050</v>
+        <v>954</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -22469,7 +24567,7 @@
         <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>1051</v>
+        <v>955</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -22483,7 +24581,7 @@
         <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>1052</v>
+        <v>956</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -22497,7 +24595,7 @@
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>1053</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -22511,7 +24609,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>1054</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -22525,7 +24623,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>959</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -22539,7 +24637,7 @@
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>1056</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -22553,7 +24651,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>1057</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -22567,7 +24665,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>1058</v>
+        <v>962</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -22581,7 +24679,7 @@
         <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>1059</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -22595,7 +24693,7 @@
         <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>1060</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -22609,7 +24707,7 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>1061</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -22623,7 +24721,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>1062</v>
+        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -22637,7 +24735,7 @@
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>1063</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -22651,7 +24749,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>1064</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -22665,7 +24763,7 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>1065</v>
+        <v>969</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -22679,7 +24777,7 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>1066</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -22693,7 +24791,7 @@
         <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>1067</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -22707,7 +24805,7 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>1068</v>
+        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -22721,7 +24819,7 @@
         <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>1069</v>
+        <v>973</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -22735,7 +24833,7 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>1070</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -22749,7 +24847,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>1071</v>
+        <v>975</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -22763,7 +24861,7 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>1072</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -22777,7 +24875,7 @@
         <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>1073</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -22791,7 +24889,7 @@
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>1074</v>
+        <v>978</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -22805,7 +24903,7 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>1075</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -22819,7 +24917,7 @@
         <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>1076</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -22833,7 +24931,7 @@
         <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>1077</v>
+        <v>981</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -22847,7 +24945,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>1078</v>
+        <v>982</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -22861,7 +24959,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>1079</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -22875,7 +24973,7 @@
         <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>1080</v>
+        <v>984</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -22889,7 +24987,7 @@
         <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>1081</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -22903,7 +25001,7 @@
         <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>1082</v>
+        <v>986</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -22917,7 +25015,7 @@
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>1083</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -22931,7 +25029,7 @@
         <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>1084</v>
+        <v>988</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -22945,7 +25043,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>1085</v>
+        <v>989</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -22959,7 +25057,7 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>1086</v>
+        <v>990</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -22973,7 +25071,7 @@
         <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>1087</v>
+        <v>991</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -22987,7 +25085,7 @@
         <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>1088</v>
+        <v>992</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -23001,7 +25099,7 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>1089</v>
+        <v>993</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -23015,7 +25113,7 @@
         <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>1090</v>
+        <v>994</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -23029,7 +25127,7 @@
         <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>1091</v>
+        <v>995</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -23043,7 +25141,7 @@
         <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>1092</v>
+        <v>996</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -23057,7 +25155,7 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>1093</v>
+        <v>997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -23071,7 +25169,7 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>1094</v>
+        <v>998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -23085,7 +25183,7 @@
         <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>1095</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -23099,7 +25197,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>1096</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -23113,7 +25211,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>1097</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -23127,7 +25225,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>1098</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -23141,7 +25239,7 @@
         <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>1099</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -23155,7 +25253,7 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>1100</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -23169,7 +25267,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>1101</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -23183,7 +25281,7 @@
         <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>1102</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -23197,7 +25295,7 @@
         <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>1103</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -23211,7 +25309,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>1104</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -23225,7 +25323,7 @@
         <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>1105</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -23239,7 +25337,7 @@
         <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>1106</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -23253,7 +25351,7 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>1107</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -23267,7 +25365,7 @@
         <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>1108</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -23281,7 +25379,7 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>1109</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -23295,7 +25393,7 @@
         <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>1110</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -23309,7 +25407,7 @@
         <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>1111</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -23323,7 +25421,7 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>1112</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -23337,7 +25435,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>1113</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -23351,7 +25449,7 @@
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>1114</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -23365,7 +25463,7 @@
         <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>1115</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -23379,7 +25477,7 @@
         <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>1116</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -23393,7 +25491,7 @@
         <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>1117</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -23407,7 +25505,7 @@
         <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>1118</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -23421,7 +25519,7 @@
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>1119</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -23435,7 +25533,7 @@
         <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>1120</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -23449,7 +25547,7 @@
         <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>1121</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -23463,7 +25561,7 @@
         <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>1122</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -23477,7 +25575,7 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>1123</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -23491,7 +25589,7 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>1124</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -23524,7 +25622,7 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>1125</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -23538,7 +25636,7 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>1126</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -23552,7 +25650,7 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>1127</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -23566,7 +25664,7 @@
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>1128</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -23580,7 +25678,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>1129</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -23594,7 +25692,7 @@
         <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>1130</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -23608,7 +25706,7 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>1131</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -23622,7 +25720,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>1132</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -23636,7 +25734,7 @@
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>1133</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -23650,7 +25748,7 @@
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>1134</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -23664,7 +25762,7 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>1135</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -23678,7 +25776,7 @@
         <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>1136</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -23692,7 +25790,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>1137</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -23706,7 +25804,7 @@
         <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>1138</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -23720,7 +25818,7 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>1139</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -23734,7 +25832,7 @@
         <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>1140</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -23748,7 +25846,7 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>1141</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -23762,7 +25860,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>1142</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -23776,7 +25874,7 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>1143</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -23790,7 +25888,7 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>1144</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -23804,7 +25902,7 @@
         <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>1145</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -23818,7 +25916,7 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>1146</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -23832,7 +25930,7 @@
         <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>1147</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -23846,7 +25944,7 @@
         <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>1148</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -23860,7 +25958,7 @@
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>1149</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -23874,7 +25972,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>1150</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -23888,7 +25986,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>1151</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -23902,7 +26000,7 @@
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>1152</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -23916,7 +26014,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>1153</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -23930,7 +26028,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>1154</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -23944,7 +26042,7 @@
         <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>1155</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -23958,7 +26056,7 @@
         <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>1156</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -23972,7 +26070,7 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>1157</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -23986,7 +26084,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>1158</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -24000,7 +26098,7 @@
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>1159</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -24014,7 +26112,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>1160</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -24028,7 +26126,7 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>1161</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -24042,7 +26140,7 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>1162</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -24056,7 +26154,7 @@
         <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>1163</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -24070,7 +26168,7 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>1164</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -24084,7 +26182,7 @@
         <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>1165</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -24098,7 +26196,7 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>1166</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -24112,7 +26210,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>1167</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -24126,7 +26224,7 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>1168</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -24140,7 +26238,7 @@
         <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>1169</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -24154,7 +26252,7 @@
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>1170</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -24168,7 +26266,7 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>1171</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -24182,7 +26280,7 @@
         <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>1172</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -24196,7 +26294,7 @@
         <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>1173</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -24210,7 +26308,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>1174</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -24224,7 +26322,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>1175</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -24238,7 +26336,7 @@
         <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>1176</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -24252,7 +26350,7 @@
         <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>1177</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -24266,7 +26364,7 @@
         <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>1178</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -24280,7 +26378,7 @@
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>1179</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -24294,7 +26392,7 @@
         <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>1180</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -24308,7 +26406,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>1181</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -24322,7 +26420,7 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>1182</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -24336,7 +26434,7 @@
         <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>1183</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -24350,7 +26448,7 @@
         <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>1184</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -24364,7 +26462,7 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>1185</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -24378,7 +26476,7 @@
         <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>1186</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -24392,7 +26490,7 @@
         <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>1187</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -24406,7 +26504,7 @@
         <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>1188</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -24420,7 +26518,7 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>1189</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -24434,7 +26532,7 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>1190</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -24448,7 +26546,7 @@
         <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>1191</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -24462,7 +26560,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>1192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -24476,7 +26574,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>1193</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -24490,7 +26588,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>1194</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -24504,7 +26602,7 @@
         <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>1195</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -24518,7 +26616,7 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>1196</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -24532,7 +26630,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>1197</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -24546,7 +26644,7 @@
         <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>1198</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -24560,7 +26658,7 @@
         <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>1199</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -24574,7 +26672,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>1200</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -24588,7 +26686,7 @@
         <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>1201</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -24602,7 +26700,7 @@
         <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>1202</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -24616,7 +26714,7 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>1203</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -24630,7 +26728,7 @@
         <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>1204</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -24644,7 +26742,7 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>1205</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -24658,7 +26756,7 @@
         <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>1206</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -24672,7 +26770,7 @@
         <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>1207</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -24686,7 +26784,7 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>1208</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -24700,7 +26798,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>1209</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -24714,7 +26812,7 @@
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>1210</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -24728,7 +26826,7 @@
         <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>1211</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -24742,7 +26840,7 @@
         <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>1212</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -24756,7 +26854,7 @@
         <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>1213</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -24770,7 +26868,7 @@
         <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>1214</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -24784,7 +26882,7 @@
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>1215</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -24798,7 +26896,7 @@
         <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>1216</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -24812,7 +26910,7 @@
         <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>1217</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -24826,7 +26924,7 @@
         <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>1218</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -24840,7 +26938,7 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>1219</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -24854,7 +26952,7 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>1220</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -24866,8 +26964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2E1DC-4D06-4D43-8151-7BF5994C7595}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24887,7 +26985,7 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>837</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -24901,7 +26999,7 @@
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>838</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -24915,7 +27013,7 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>839</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -24929,7 +27027,7 @@
         <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>840</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -24943,7 +27041,7 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>841</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -24957,7 +27055,7 @@
         <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>842</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -24971,7 +27069,7 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>843</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -24985,7 +27083,7 @@
         <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>844</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -24999,7 +27097,7 @@
         <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>845</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -25013,7 +27111,7 @@
         <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -25027,7 +27125,7 @@
         <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -25041,7 +27139,7 @@
         <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>848</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -25055,7 +27153,7 @@
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -25069,7 +27167,7 @@
         <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>850</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -25083,7 +27181,7 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>851</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -25097,7 +27195,7 @@
         <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>852</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -25111,7 +27209,7 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>853</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -25125,7 +27223,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>854</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -25139,7 +27237,7 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>855</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -25153,7 +27251,7 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>856</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -25167,7 +27265,7 @@
         <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>857</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -25181,7 +27279,7 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>858</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -25195,7 +27293,7 @@
         <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>859</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -25209,7 +27307,7 @@
         <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>860</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -25223,7 +27321,7 @@
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>861</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -25237,7 +27335,7 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>862</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -25251,7 +27349,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>863</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -25265,7 +27363,7 @@
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>864</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -25279,7 +27377,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>865</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -25293,7 +27391,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>866</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -25307,7 +27405,7 @@
         <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>867</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -25321,7 +27419,7 @@
         <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>868</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -25335,7 +27433,7 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>869</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -25349,7 +27447,7 @@
         <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>870</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -25363,7 +27461,7 @@
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>871</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -25377,7 +27475,7 @@
         <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>872</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -25391,7 +27489,7 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>873</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -25405,7 +27503,7 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>874</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -25419,7 +27517,7 @@
         <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>875</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -25433,7 +27531,7 @@
         <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>876</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -25447,7 +27545,7 @@
         <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>877</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -25461,7 +27559,7 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>878</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -25475,7 +27573,7 @@
         <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>879</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -25489,7 +27587,7 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>880</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -25503,7 +27601,7 @@
         <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>881</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -25517,7 +27615,7 @@
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>882</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -25531,7 +27629,7 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>883</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -25545,7 +27643,7 @@
         <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>884</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -25559,7 +27657,7 @@
         <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>885</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -25573,7 +27671,7 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>886</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -25587,7 +27685,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>887</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -25601,7 +27699,7 @@
         <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>888</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -25615,7 +27713,7 @@
         <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>889</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -25629,7 +27727,7 @@
         <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>890</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -25643,7 +27741,7 @@
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>891</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -25657,7 +27755,7 @@
         <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>892</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -25671,7 +27769,7 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>893</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -25685,7 +27783,7 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>894</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -25699,7 +27797,7 @@
         <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>895</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -25713,7 +27811,7 @@
         <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>896</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -25727,7 +27825,7 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>897</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -25741,7 +27839,7 @@
         <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>898</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -25755,7 +27853,7 @@
         <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>899</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -25769,7 +27867,7 @@
         <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>900</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -25783,7 +27881,7 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>901</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -25797,7 +27895,7 @@
         <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>902</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -25811,7 +27909,7 @@
         <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>903</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -25825,7 +27923,7 @@
         <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>904</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -25839,7 +27937,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>905</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -25853,7 +27951,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>906</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -25867,7 +27965,7 @@
         <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>907</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -25881,7 +27979,7 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>908</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -25895,7 +27993,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>909</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -25909,7 +28007,7 @@
         <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>910</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -25923,7 +28021,7 @@
         <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>911</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -25937,7 +28035,7 @@
         <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>912</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -25951,7 +28049,7 @@
         <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>913</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -25965,7 +28063,7 @@
         <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>914</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -25979,7 +28077,7 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>915</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -25993,7 +28091,7 @@
         <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>916</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -26007,7 +28105,7 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>917</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -26021,7 +28119,7 @@
         <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>918</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -26035,7 +28133,7 @@
         <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>919</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -26049,7 +28147,7 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>920</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -26063,7 +28161,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>921</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -26077,7 +28175,7 @@
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>922</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -26091,7 +28189,7 @@
         <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>923</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -26105,7 +28203,7 @@
         <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>924</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -26119,7 +28217,7 @@
         <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>925</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -26133,7 +28231,7 @@
         <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>926</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -26147,7 +28245,7 @@
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>927</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -26161,7 +28259,7 @@
         <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>928</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -26175,7 +28273,7 @@
         <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>929</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -26189,7 +28287,7 @@
         <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>930</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -26203,7 +28301,7 @@
         <v>195</v>
       </c>
       <c r="D95" t="s">
-        <v>931</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -26217,7 +28315,7 @@
         <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>932</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
